--- a/final-project-workload-final.xlsx
+++ b/final-project-workload-final.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\template-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ORHAN YILDIZ\Desktop\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E02D6A-1BB1-43FA-8681-F6DE9AF33654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="468" windowWidth="21624" windowHeight="11172" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9792" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="workload" sheetId="1" r:id="rId1"/>
@@ -21,23 +20,7 @@
     <definedName name="_56F9DC9755BA473782653E2940F9ResponseSheet">"Form1"</definedName>
     <definedName name="_56F9DC9755BA473782653E2940F9SourceDocId">"{1ec53893-4bf9-4845-bb1e-7f11035496d8}"</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -101,25 +84,25 @@
     <t>generation and traversal of acceleration data-structure</t>
   </si>
   <si>
+    <t>implementation of shading models</t>
+  </si>
+  <si>
+    <t>implementation of recursive ray reflections</t>
+  </si>
+  <si>
+    <t>implementation of recursive ray transparency</t>
+  </si>
+  <si>
     <t>implementation of texture mapping</t>
   </si>
   <si>
     <t>implementation of lights and shadows</t>
   </si>
   <si>
-    <t>implementation of shading models</t>
-  </si>
-  <si>
-    <t>implementation of recursive ray reflections</t>
-  </si>
-  <si>
-    <t>implementation of recursive ray transparency</t>
+    <t>Environment maps</t>
   </si>
   <si>
     <t>Bloom filter</t>
-  </si>
-  <si>
-    <t>Environment maps</t>
   </si>
   <si>
     <t>implementation of multisampling</t>
@@ -137,7 +120,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -171,6 +154,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -181,14 +172,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -206,7 +189,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -292,38 +275,33 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -336,63 +314,58 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -403,7 +376,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -487,7 +460,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -782,18 +755,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="B1:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
     <col min="2" max="2" width="48.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="48.44140625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="48.44140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="21.109375" customWidth="1"/>
     <col min="5" max="5" width="22.44140625" customWidth="1"/>
     <col min="6" max="6" width="22.88671875" customWidth="1"/>
@@ -804,458 +777,468 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="B1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="36" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="2"/>
-      <c r="C3" s="24"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="1" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="4">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="8">
         <v>5752132</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="8">
         <v>5746957</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="8">
         <v>5716934</v>
       </c>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="4" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="29">
         <v>6</v>
       </c>
-      <c r="D8" s="10">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10">
-        <v>100</v>
-      </c>
-      <c r="F8" s="11">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" ref="G8:G15" si="0">SUM(D8:F8)</f>
+      <c r="D8" s="14">
+        <v>0</v>
+      </c>
+      <c r="E8" s="14">
+        <v>100</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="29">
+        <v>1</v>
+      </c>
+      <c r="D9" s="14">
+        <v>100</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="30">
+        <v>1</v>
+      </c>
+      <c r="D10" s="14">
+        <v>100</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C11" s="30">
         <v>1</v>
       </c>
-      <c r="D9" s="10">
-        <v>100</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0</v>
-      </c>
-      <c r="F9" s="11">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
+      <c r="D11" s="14">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15">
+        <v>100</v>
+      </c>
+      <c r="G11" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="D12" s="14">
+        <v>100</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C13" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="D13" s="14">
+        <v>100</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="31">
+        <v>5</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15">
+        <v>100</v>
+      </c>
+      <c r="G14" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="31">
+        <v>1.75</v>
+      </c>
+      <c r="D15" s="14">
+        <v>100</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="32">
+        <v>18</v>
+      </c>
+      <c r="D16" s="20">
+        <v>6</v>
+      </c>
+      <c r="E16" s="20">
+        <v>6</v>
+      </c>
+      <c r="F16" s="20">
+        <v>6</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
+      <c r="B18" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="18"/>
+      <c r="B19" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="D19" s="22">
+        <v>100</v>
+      </c>
+      <c r="E19" s="14">
+        <v>0</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="29">
+        <v>2</v>
+      </c>
+      <c r="D20" s="22">
+        <v>50</v>
+      </c>
+      <c r="E20" s="14">
+        <v>50</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0</v>
+      </c>
+      <c r="G20" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="D21" s="22">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14">
+        <v>0</v>
+      </c>
+      <c r="F21" s="15">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="D22" s="22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="14">
+        <v>0</v>
+      </c>
+      <c r="F22" s="15">
+        <v>100</v>
+      </c>
+      <c r="G22" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="29">
         <v>1</v>
       </c>
-      <c r="D10" s="10">
-        <v>100</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="28">
-        <v>1</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0</v>
-      </c>
-      <c r="F11" s="11">
-        <v>100</v>
-      </c>
-      <c r="G11" s="6">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="D12" s="10">
-        <v>100</v>
-      </c>
-      <c r="E12" s="10">
-        <v>0</v>
-      </c>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="29">
-        <v>1.5</v>
-      </c>
-      <c r="D13" s="10">
-        <v>100</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0</v>
-      </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="29">
-        <v>5</v>
-      </c>
-      <c r="D14" s="10">
-        <v>0</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0</v>
-      </c>
-      <c r="F14" s="11">
-        <v>100</v>
-      </c>
-      <c r="G14" s="6">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="29">
-        <v>1.75</v>
-      </c>
-      <c r="D15" s="10">
-        <v>100</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0</v>
-      </c>
-      <c r="F15" s="11">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15" t="s">
+      <c r="D23" s="22">
+        <v>100</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0</v>
+      </c>
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="29">
+        <v>3.5</v>
+      </c>
+      <c r="D24" s="22">
+        <v>0</v>
+      </c>
+      <c r="E24" s="14">
+        <v>50</v>
+      </c>
+      <c r="F24" s="15">
+        <v>50</v>
+      </c>
+      <c r="G24" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="30">
-        <f>SUM(C8:C15)</f>
-        <v>18</v>
-      </c>
-      <c r="D16" s="16">
-        <f>SUMPRODUCT(C8:C15,D8:D15)/100</f>
-        <v>6</v>
-      </c>
-      <c r="E16" s="16">
-        <f>SUMPRODUCT($C8:$C15,E8:E15)/100</f>
-        <v>6</v>
-      </c>
-      <c r="F16" s="16">
-        <f>SUMPRODUCT($C8:$C15,F8:F15)/100</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="27">
-        <v>1.5</v>
-      </c>
-      <c r="D19" s="18">
-        <v>100</v>
-      </c>
-      <c r="E19" s="10">
-        <v>0</v>
-      </c>
-      <c r="F19" s="11">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6">
-        <f t="shared" ref="G19:G24" si="1">SUM(D19:F19)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="27">
-        <v>2</v>
-      </c>
-      <c r="D20" s="18">
-        <v>100</v>
-      </c>
-      <c r="E20" s="10">
-        <v>0</v>
-      </c>
-      <c r="F20" s="11">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="27">
-        <v>4.5</v>
-      </c>
-      <c r="D21" s="18">
-        <v>0</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0</v>
-      </c>
-      <c r="F21" s="11">
-        <v>100</v>
-      </c>
-      <c r="G21" s="6">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="27">
-        <v>1.5</v>
-      </c>
-      <c r="D22" s="18">
-        <v>0</v>
-      </c>
-      <c r="E22" s="10">
-        <v>100</v>
-      </c>
-      <c r="F22" s="11">
-        <v>0</v>
-      </c>
-      <c r="G22" s="6">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="27">
-        <v>1</v>
-      </c>
-      <c r="D23" s="18">
-        <v>100</v>
-      </c>
-      <c r="E23" s="10">
-        <v>0</v>
-      </c>
-      <c r="F23" s="11">
-        <v>0</v>
-      </c>
-      <c r="G23" s="6">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="27">
+      <c r="C25" s="34">
+        <v>14</v>
+      </c>
+      <c r="D25" s="20">
         <v>3.5</v>
       </c>
-      <c r="D24" s="18">
-        <v>0</v>
-      </c>
-      <c r="E24" s="10">
-        <v>100</v>
-      </c>
-      <c r="F24" s="11">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="33">
-        <f>SUM(C19:C24)</f>
+      <c r="E25" s="25">
+        <v>2.75</v>
+      </c>
+      <c r="F25" s="25">
+        <v>3.25</v>
+      </c>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="16">
-        <f>SUMPRODUCT($C19:$C24,D19:D24)/100</f>
-        <v>4.5</v>
-      </c>
-      <c r="E25" s="16">
-        <f>SUMPRODUCT($C19:$C24,E19:E24)/100</f>
-        <v>5</v>
-      </c>
-      <c r="F25" s="16">
-        <f>SUMPRODUCT($C19:$C24,F19:F24)/100</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="21">
-        <f>D$16+D25</f>
-        <v>10.5</v>
-      </c>
-      <c r="E26" s="21">
-        <f>E$16+E25</f>
-        <v>11</v>
-      </c>
-      <c r="F26" s="22">
-        <f>F$16+F25</f>
-        <v>10.5</v>
-      </c>
+      <c r="C26" s="35"/>
+      <c r="D26" s="25">
+        <v>9.5</v>
+      </c>
+      <c r="E26" s="25">
+        <v>8.75</v>
+      </c>
+      <c r="F26" s="25">
+        <v>9.25</v>
+      </c>
+      <c r="G26" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1263,12 +1246,12 @@
     <mergeCell ref="B2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -1276,17 +1259,17 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
